--- a/LF/Confirmation/Cote d'Ivoire/ci_202302_lf_conf_2_partcipants.xlsx
+++ b/LF/Confirmation/Cote d'Ivoire/ci_202302_lf_conf_2_partcipants.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\TAS\Cote d'Ivoire\Fev 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\Confirmation\Cote d'Ivoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBC2449-DFEA-4364-BA43-BE6369B770E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3F47D5-342A-4B6D-AF01-EA42DD8B4A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>p_eu_name</t>
-  </si>
-  <si>
     <t>Select your evaluation unit (EU)</t>
   </si>
   <si>
@@ -360,10 +357,13 @@
     <t>French</t>
   </si>
   <si>
-    <t>ci_202302_lf_tas1_2_partcipants</t>
-  </si>
-  <si>
-    <t>(2023 Dev) 2. TAS1 FL - Participants</t>
+    <t>(2023 Fev) 2. Recartographie FL - Participants</t>
+  </si>
+  <si>
+    <t>ci_202302_lf_conf_2_partcipants</t>
+  </si>
+  <si>
+    <t>p_region_name</t>
   </si>
 </sst>
 </file>
@@ -945,14 +945,14 @@
         <v>26</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="12"/>
@@ -973,14 +973,14 @@
         <v>26</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="12"/>
@@ -1001,14 +1001,14 @@
         <v>26</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="12"/>
@@ -1029,14 +1029,14 @@
         <v>26</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="12"/>
@@ -1057,20 +1057,20 @@
         <v>26</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15" t="s">
@@ -1084,17 +1084,17 @@
         <v>26</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>25</v>
@@ -1105,17 +1105,17 @@
         <v>26</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>25</v>
@@ -1123,17 +1123,17 @@
     </row>
     <row r="10" spans="1:16" s="3" customFormat="1">
       <c r="A10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="13"/>
@@ -1151,17 +1151,17 @@
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1">
       <c r="A11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="13"/>
@@ -1169,7 +1169,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="12"/>
       <c r="K11" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13" t="s">
@@ -1184,28 +1184,28 @@
         <v>16</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="J12" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="K12" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13" t="s">
@@ -1220,28 +1220,28 @@
         <v>16</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>66</v>
-      </c>
       <c r="K13" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="13" t="s">
@@ -1256,32 +1256,32 @@
         <v>16</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="J14" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>74</v>
-      </c>
       <c r="K14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15" t="s">
@@ -1296,14 +1296,14 @@
         <v>26</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="12"/>
@@ -1311,10 +1311,10 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>25</v>
@@ -1327,17 +1327,17 @@
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="31.5">
       <c r="A16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="12"/>
@@ -1345,7 +1345,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="13"/>
@@ -1355,17 +1355,17 @@
     </row>
     <row r="17" spans="1:16" s="3" customFormat="1">
       <c r="A17" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="12"/>
@@ -1381,10 +1381,10 @@
     </row>
     <row r="18" spans="1:16" s="3" customFormat="1">
       <c r="A18" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -1403,10 +1403,10 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>91</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -1448,7 +1448,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1463,86 +1463,86 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1569,24 +1569,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
         <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/LF/Confirmation/Cote d'Ivoire/ci_202302_lf_conf_2_partcipants.xlsx
+++ b/LF/Confirmation/Cote d'Ivoire/ci_202302_lf_conf_2_partcipants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\Confirmation\Cote d'Ivoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3F47D5-342A-4B6D-AF01-EA42DD8B4A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A526B41-1BCB-40F1-ADEA-B21F7D6749CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="119">
   <si>
     <t>type</t>
   </si>
@@ -195,15 +195,6 @@
     <t>Entrer l'âge du participant (en années)</t>
   </si>
   <si>
-    <t>. &gt;= 5 and . &lt;= 9</t>
-  </si>
-  <si>
-    <t>The age must be between 5 and 9 years</t>
-  </si>
-  <si>
-    <t>L'age doit être compris entre 5 et 9 ans</t>
-  </si>
-  <si>
     <t>p_how_long_lived</t>
   </si>
   <si>
@@ -213,15 +204,6 @@
     <t>Depuis combien d'années le participant habite-t-il dans la communauté?</t>
   </si>
   <si>
-    <t>. &lt;= ${p_age_yrs}</t>
-  </si>
-  <si>
-    <t>The value must not be greater than the age</t>
-  </si>
-  <si>
-    <t>La valeur ne doit pas être supérieure à l'âge</t>
-  </si>
-  <si>
     <t>p_num</t>
   </si>
   <si>
@@ -357,13 +339,46 @@
     <t>French</t>
   </si>
   <si>
-    <t>(2023 Fev) 2. Recartographie FL - Participants</t>
-  </si>
-  <si>
-    <t>ci_202302_lf_conf_2_partcipants</t>
-  </si>
-  <si>
     <t>p_region_name</t>
+  </si>
+  <si>
+    <t>. &gt; 0 and . &lt;= 120</t>
+  </si>
+  <si>
+    <t>Please enter a correct age</t>
+  </si>
+  <si>
+    <t>Veuillez entrer un age correcte</t>
+  </si>
+  <si>
+    <t>&gt; 1 an</t>
+  </si>
+  <si>
+    <t>&lt; 1 an</t>
+  </si>
+  <si>
+    <t>Je ne sais pas</t>
+  </si>
+  <si>
+    <t>&gt; 1 year</t>
+  </si>
+  <si>
+    <t>&lt; 1 year</t>
+  </si>
+  <si>
+    <t>Do not know</t>
+  </si>
+  <si>
+    <t>tps_ds_communaute</t>
+  </si>
+  <si>
+    <t>select_one tps_ds_communaute</t>
+  </si>
+  <si>
+    <t>(2023 Fev) 2. Recartographie FL - Participants V1</t>
+  </si>
+  <si>
+    <t>ci_202302_lf_conf_2_partcipants_v1</t>
   </si>
 </sst>
 </file>
@@ -440,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -478,11 +493,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -541,6 +567,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -827,10 +857,10 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -945,7 +975,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>27</v>
@@ -1196,13 +1226,13 @@
       <c r="F12" s="22"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>53</v>
@@ -1217,29 +1247,23 @@
     </row>
     <row r="13" spans="1:16" s="3" customFormat="1" ht="31.5">
       <c r="A13" s="12" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>65</v>
-      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="12" t="s">
         <v>53</v>
       </c>
@@ -1256,29 +1280,29 @@
         <v>16</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>53</v>
@@ -1296,14 +1320,14 @@
         <v>26</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="12"/>
@@ -1314,7 +1338,7 @@
         <v>53</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>25</v>
@@ -1327,17 +1351,17 @@
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="31.5">
       <c r="A16" s="12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="22" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="12"/>
@@ -1345,7 +1369,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="13"/>
@@ -1355,17 +1379,17 @@
     </row>
     <row r="17" spans="1:16" s="3" customFormat="1">
       <c r="A17" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="12"/>
@@ -1381,10 +1405,10 @@
     </row>
     <row r="18" spans="1:16" s="3" customFormat="1">
       <c r="A18" s="12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -1403,10 +1427,10 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -1431,16 +1455,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="39.625" customWidth="1"/>
     <col min="3" max="3" width="23.75" customWidth="1"/>
     <col min="4" max="4" width="20.875" customWidth="1"/>
@@ -1448,7 +1472,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1463,91 +1487,133 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C54">
-    <sortCondition ref="B9:B54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C53">
+    <sortCondition ref="B8:B53"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1558,7 +1624,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1569,24 +1635,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
